--- a/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
+++ b/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="U1" sqref="U1"/>
+    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -432,6 +432,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1451625299</v>
+      </c>
       <c r="B1">
         <v>1.2</v>
       </c>

--- a/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
+++ b/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,41 +397,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="4" max="4" width="17.7109375" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" customWidth="1"/>
-    <col min="7" max="7" width="18.85546875" customWidth="1"/>
-    <col min="8" max="8" width="23.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" customWidth="1"/>
-    <col min="10" max="10" width="14.140625" customWidth="1"/>
-    <col min="11" max="11" width="19.42578125" customWidth="1"/>
-    <col min="12" max="12" width="15.42578125" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="18.88671875" customWidth="1"/>
+    <col min="8" max="8" width="23.109375" customWidth="1"/>
+    <col min="9" max="9" width="15.88671875" customWidth="1"/>
+    <col min="10" max="10" width="14.109375" customWidth="1"/>
+    <col min="11" max="11" width="19.44140625" customWidth="1"/>
+    <col min="12" max="12" width="15.44140625" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="16.7109375" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" customWidth="1"/>
-    <col min="17" max="17" width="20.7109375" customWidth="1"/>
-    <col min="18" max="18" width="16.5703125" customWidth="1"/>
+    <col min="14" max="14" width="16.6640625" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" customWidth="1"/>
+    <col min="17" max="17" width="20.6640625" customWidth="1"/>
+    <col min="18" max="18" width="16.5546875" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="17.42578125" customWidth="1"/>
-    <col min="26" max="26" width="15.5703125" customWidth="1"/>
-    <col min="27" max="27" width="17.140625" customWidth="1"/>
-    <col min="28" max="28" width="16.5703125" customWidth="1"/>
-    <col min="29" max="29" width="14.42578125" customWidth="1"/>
-    <col min="30" max="30" width="13.7109375" customWidth="1"/>
+    <col min="21" max="21" width="13.6640625" customWidth="1"/>
+    <col min="25" max="25" width="17.44140625" customWidth="1"/>
+    <col min="26" max="26" width="15.5546875" customWidth="1"/>
+    <col min="27" max="27" width="17.109375" customWidth="1"/>
+    <col min="28" max="28" width="16.5546875" customWidth="1"/>
+    <col min="29" max="29" width="14.44140625" customWidth="1"/>
+    <col min="30" max="30" width="13.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1451625299</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1451625300</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1451625301</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1451625302</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1451625303</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1451625304</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1451625305</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1451625306</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1451625307</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1451625308</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1451625309</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1451625310</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1451625311</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1451625312</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1451625313</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1451625314</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1451625315</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1451625316</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1451625317</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1451625318</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1451625319</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1451625320</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1451625321</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1451625322</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1451625323</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>1451625324</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>1451625325</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>1451625326</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>1451625327</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>1451625328</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>1451625329</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>1451625330</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>1451625331</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>1451625332</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>1451625333</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>1451625334</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>1451625335</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>1451625336</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>1451625337</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>1451625338</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>1451625339</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>1451625340</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>1451625341</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>1451625342</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>1451625343</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>1451625344</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>1451625345</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>1451625346</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>1451625347</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>1451625348</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>1451625349</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>1451625350</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>1451625351</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>1451625352</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>1451625353</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>1451625354</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>1451625355</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>1451625356</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>1451625357</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>1451625358</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>1451625359</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>1451625360</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>1451625361</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1451625362</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>1451625363</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>1451625364</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>1451625365</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>1451625366</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>1451625367</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>1451625368</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>1451625369</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>1451625370</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>1451625371</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>1451625372</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>1451625373</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>1451625374</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>1451625375</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>1451625376</v>
       </c>
@@ -8069,7 +8069,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>1451625377</v>
+      </c>
       <c r="B79">
         <v>1.084566667</v>
       </c>
@@ -8164,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>1451625378</v>
       </c>
@@ -8262,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>1451625379</v>
       </c>
@@ -8360,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>1451625380</v>
       </c>
@@ -8458,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>1451625381</v>
       </c>
@@ -8556,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>1451625382</v>
       </c>
@@ -8654,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>1451625383</v>
       </c>
@@ -8752,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>1451625384</v>
       </c>
@@ -8850,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>1451625385</v>
       </c>
@@ -8948,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>1451625386</v>
       </c>
@@ -9046,7 +9049,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>1451625387</v>
       </c>
@@ -9144,7 +9147,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>1451625388</v>
       </c>
@@ -9242,7 +9245,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>1451625389</v>
       </c>
@@ -9340,7 +9343,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>1451625390</v>
       </c>
@@ -9438,7 +9441,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>1451625391</v>
       </c>
@@ -9536,7 +9539,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>1451625392</v>
       </c>
@@ -9634,7 +9637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>1451625393</v>
       </c>
@@ -9732,7 +9735,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>1451625394</v>
       </c>
@@ -9830,7 +9833,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>1451625395</v>
       </c>
@@ -9928,7 +9931,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>1451625396</v>
       </c>
@@ -10026,7 +10029,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>1451625397</v>
       </c>
@@ -10124,7 +10127,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>3213123123</v>
       </c>
@@ -10233,7 +10236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10245,7 +10248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
+++ b/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
@@ -397,8 +397,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="T19" sqref="T19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -778,7 +778,7 @@
         <v>9.1833330000000001E-3</v>
       </c>
       <c r="T4">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U4" t="s">
         <v>2</v>
@@ -876,7 +876,7 @@
         <v>7.8833329999999993E-3</v>
       </c>
       <c r="T5">
-        <v>36.57</v>
+        <v>39.799999999999997</v>
       </c>
       <c r="U5" t="s">
         <v>2</v>
@@ -974,7 +974,7 @@
         <v>6.5333329999999997E-3</v>
       </c>
       <c r="T6">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U6" t="s">
         <v>2</v>
@@ -1072,7 +1072,7 @@
         <v>5.9833330000000004E-3</v>
       </c>
       <c r="T7">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U7" t="s">
         <v>2</v>
@@ -1170,7 +1170,7 @@
         <v>5.3166669999999997E-3</v>
       </c>
       <c r="T8">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U8" t="s">
         <v>2</v>
@@ -1268,7 +1268,7 @@
         <v>5.7499999999999999E-3</v>
       </c>
       <c r="T9">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U9" t="s">
         <v>2</v>
@@ -1366,7 +1366,7 @@
         <v>5.8166670000000002E-3</v>
       </c>
       <c r="T10">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U10" t="s">
         <v>2</v>
@@ -1464,7 +1464,7 @@
         <v>4.0499999999999998E-3</v>
       </c>
       <c r="T11">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U11" t="s">
         <v>2</v>
@@ -1562,7 +1562,7 @@
         <v>3.0999999999999999E-3</v>
       </c>
       <c r="T12">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U12" t="s">
         <v>2</v>
@@ -1660,7 +1660,7 @@
         <v>2.6666670000000002E-3</v>
       </c>
       <c r="T13">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U13" t="s">
         <v>2</v>
@@ -1758,7 +1758,7 @@
         <v>2.3E-3</v>
       </c>
       <c r="T14">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U14" t="s">
         <v>2</v>
@@ -1856,7 +1856,7 @@
         <v>2.183333E-3</v>
       </c>
       <c r="T15">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U15" t="s">
         <v>2</v>
@@ -1954,7 +1954,7 @@
         <v>2.1666670000000002E-3</v>
       </c>
       <c r="T16">
-        <v>36.57</v>
+        <v>40.57</v>
       </c>
       <c r="U16" t="s">
         <v>2</v>
@@ -2052,7 +2052,7 @@
         <v>2.0999999999999999E-3</v>
       </c>
       <c r="T17">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U17" t="s">
         <v>2</v>
@@ -2150,7 +2150,7 @@
         <v>2.0666669999999999E-3</v>
       </c>
       <c r="T18">
-        <v>36.57</v>
+        <v>39.57</v>
       </c>
       <c r="U18" t="s">
         <v>2</v>

--- a/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
+++ b/SOA/SOA_PROJEKAT_1/SOA_PROJEKAT_1/Sensor_Device_Service/Data/SOA_DATA.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,41 +397,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="T19" sqref="T19"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
-    <col min="3" max="3" width="13.109375" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" customWidth="1"/>
-    <col min="5" max="5" width="24.44140625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="18.88671875" customWidth="1"/>
-    <col min="8" max="8" width="23.109375" customWidth="1"/>
-    <col min="9" max="9" width="15.88671875" customWidth="1"/>
-    <col min="10" max="10" width="14.109375" customWidth="1"/>
-    <col min="11" max="11" width="19.44140625" customWidth="1"/>
-    <col min="12" max="12" width="15.44140625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" customWidth="1"/>
+    <col min="5" max="5" width="24.42578125" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" customWidth="1"/>
+    <col min="7" max="7" width="18.85546875" customWidth="1"/>
+    <col min="8" max="8" width="23.140625" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
+    <col min="10" max="10" width="14.140625" customWidth="1"/>
+    <col min="11" max="11" width="19.42578125" customWidth="1"/>
+    <col min="12" max="12" width="15.42578125" customWidth="1"/>
     <col min="13" max="13" width="18" customWidth="1"/>
-    <col min="14" max="14" width="16.6640625" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" customWidth="1"/>
-    <col min="17" max="17" width="20.6640625" customWidth="1"/>
-    <col min="18" max="18" width="16.5546875" customWidth="1"/>
+    <col min="14" max="14" width="29.42578125" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" customWidth="1"/>
+    <col min="17" max="17" width="20.7109375" customWidth="1"/>
+    <col min="18" max="18" width="16.5703125" customWidth="1"/>
     <col min="19" max="19" width="16" customWidth="1"/>
     <col min="20" max="20" width="19" customWidth="1"/>
-    <col min="21" max="21" width="13.6640625" customWidth="1"/>
-    <col min="25" max="25" width="17.44140625" customWidth="1"/>
-    <col min="26" max="26" width="15.5546875" customWidth="1"/>
-    <col min="27" max="27" width="17.109375" customWidth="1"/>
-    <col min="28" max="28" width="16.5546875" customWidth="1"/>
-    <col min="29" max="29" width="14.44140625" customWidth="1"/>
-    <col min="30" max="30" width="13.6640625" customWidth="1"/>
+    <col min="21" max="21" width="13.7109375" customWidth="1"/>
+    <col min="25" max="25" width="17.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.5703125" customWidth="1"/>
+    <col min="27" max="27" width="17.140625" customWidth="1"/>
+    <col min="28" max="28" width="16.5703125" customWidth="1"/>
+    <col min="29" max="29" width="14.42578125" customWidth="1"/>
+    <col min="30" max="30" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1451625299</v>
       </c>
@@ -523,7 +523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1451625300</v>
       </c>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1451625301</v>
       </c>
@@ -719,7 +719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1451625302</v>
       </c>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1451625303</v>
       </c>
@@ -915,7 +915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1451625304</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1451625305</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1451625306</v>
       </c>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1451625307</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1451625308</v>
       </c>
@@ -1405,7 +1405,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>1451625309</v>
       </c>
@@ -1503,7 +1503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1451625310</v>
       </c>
@@ -1601,7 +1601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1451625311</v>
       </c>
@@ -1699,7 +1699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1451625312</v>
       </c>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1451625313</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1451625314</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1451625315</v>
       </c>
@@ -2091,7 +2091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1451625316</v>
       </c>
@@ -2189,7 +2189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1451625317</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1451625318</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1451625319</v>
       </c>
@@ -2483,7 +2483,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>1451625320</v>
       </c>
@@ -2581,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>1451625321</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>1451625322</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>1451625323</v>
       </c>
@@ -2875,7 +2875,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1451625324</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1451625325</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1451625326</v>
       </c>
@@ -3169,7 +3169,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1451625327</v>
       </c>
@@ -3267,7 +3267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1451625328</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1451625329</v>
       </c>
@@ -3463,7 +3463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1451625330</v>
       </c>
@@ -3561,7 +3561,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1451625331</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1451625332</v>
       </c>
@@ -3757,7 +3757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1451625333</v>
       </c>
@@ -3855,7 +3855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1451625334</v>
       </c>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1451625335</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1451625336</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1451625337</v>
       </c>
@@ -4247,7 +4247,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1451625338</v>
       </c>
@@ -4345,7 +4345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1451625339</v>
       </c>
@@ -4443,7 +4443,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1451625340</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1451625341</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1451625342</v>
       </c>
@@ -4737,7 +4737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1451625343</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1451625344</v>
       </c>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1451625345</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1451625346</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1451625347</v>
       </c>
@@ -5227,7 +5227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1451625348</v>
       </c>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1451625349</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1451625350</v>
       </c>
@@ -5521,7 +5521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1451625351</v>
       </c>
@@ -5619,7 +5619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1451625352</v>
       </c>
@@ -5717,7 +5717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1451625353</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1451625354</v>
       </c>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1451625355</v>
       </c>
@@ -6011,7 +6011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1451625356</v>
       </c>
@@ -6109,7 +6109,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1451625357</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1451625358</v>
       </c>
@@ -6305,7 +6305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1451625359</v>
       </c>
@@ -6403,7 +6403,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1451625360</v>
       </c>
@@ -6501,7 +6501,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1451625361</v>
       </c>
@@ -6599,7 +6599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1451625362</v>
       </c>
@@ -6697,7 +6697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1451625363</v>
       </c>
@@ -6795,7 +6795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1451625364</v>
       </c>
@@ -6893,7 +6893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1451625365</v>
       </c>
@@ -6991,7 +6991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1451625366</v>
       </c>
@@ -7089,7 +7089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1451625367</v>
       </c>
@@ -7187,7 +7187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1451625368</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1451625369</v>
       </c>
@@ -7383,7 +7383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="72" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1451625370</v>
       </c>
@@ -7481,7 +7481,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1451625371</v>
       </c>
@@ -7579,7 +7579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="74" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1451625372</v>
       </c>
@@ -7677,7 +7677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1451625373</v>
       </c>
@@ -7775,7 +7775,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1451625374</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="77" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1451625375</v>
       </c>
@@ -7971,7 +7971,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1451625376</v>
       </c>
@@ -8069,7 +8069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1451625377</v>
       </c>
@@ -8167,7 +8167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="80" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1451625378</v>
       </c>
@@ -8265,7 +8265,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1451625379</v>
       </c>
@@ -8363,7 +8363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1451625380</v>
       </c>
@@ -8461,7 +8461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1451625381</v>
       </c>
@@ -8559,7 +8559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1451625382</v>
       </c>
@@ -8657,7 +8657,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1451625383</v>
       </c>
@@ -8755,7 +8755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1451625384</v>
       </c>
@@ -8853,7 +8853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1451625385</v>
       </c>
@@ -8951,7 +8951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1451625386</v>
       </c>
@@ -9049,7 +9049,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="89" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1451625387</v>
       </c>
@@ -9147,7 +9147,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="90" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1451625388</v>
       </c>
@@ -9245,7 +9245,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="91" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1451625389</v>
       </c>
@@ -9343,7 +9343,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="92" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1451625390</v>
       </c>
@@ -9441,7 +9441,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="93" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1451625391</v>
       </c>
@@ -9539,7 +9539,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="94" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1451625392</v>
       </c>
@@ -9637,7 +9637,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="95" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1451625393</v>
       </c>
@@ -9735,7 +9735,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="96" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1451625394</v>
       </c>
@@ -9833,7 +9833,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="97" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1451625395</v>
       </c>
@@ -9931,7 +9931,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="98" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1451625396</v>
       </c>
@@ -10029,7 +10029,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="99" spans="1:32" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1451625397</v>
       </c>
@@ -10127,9 +10127,9 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:32" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>3213123123</v>
+        <v>1451625398</v>
       </c>
       <c r="B100">
         <v>1.56385</v>
@@ -10236,7 +10236,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -10248,7 +10248,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
